--- a/02-Avancado1-Funcoes/10-ProfessorRespondidas/Aula-06-ExcelAvancado1-Revisao-FuncoesDeComparacao.xlsx
+++ b/02-Avancado1-Funcoes/10-ProfessorRespondidas/Aula-06-ExcelAvancado1-Revisao-FuncoesDeComparacao.xlsx
@@ -1,95 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27928"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\robson.svaamonde\Downloads\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13BE906F-6C16-47F4-AD31-51FE0E4AC985}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="28800" windowHeight="13035"/>
   </bookViews>
   <sheets>
     <sheet name="Funções de Comparação" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="30">
-  <si>
-    <t>Operador de Comparação/Relacionais</t>
-  </si>
-  <si>
-    <t>Primeiro</t>
-  </si>
-  <si>
-    <t>Segundo</t>
-  </si>
-  <si>
-    <t>Cálculo</t>
-  </si>
-  <si>
-    <t>Explicação</t>
-  </si>
-  <si>
-    <t>Maior</t>
-  </si>
-  <si>
-    <t>&gt;</t>
-  </si>
-  <si>
-    <t>Menor</t>
-  </si>
-  <si>
-    <t>&lt;</t>
-  </si>
-  <si>
-    <t>Igual</t>
-  </si>
-  <si>
-    <t>=</t>
-  </si>
-  <si>
-    <t>Maior Igual</t>
-  </si>
-  <si>
-    <t>&gt;=</t>
-  </si>
-  <si>
-    <t>Menor Igual</t>
-  </si>
-  <si>
-    <t>&lt;=</t>
-  </si>
-  <si>
-    <t>Diferente</t>
-  </si>
-  <si>
-    <t>&lt;&gt;</t>
-  </si>
-  <si>
-    <t>Vaamonde</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="36">
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color indexed="63"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">Robson Vaamonde
 LinkedIn: </t>
     </r>
@@ -99,7 +33,7 @@
         <sz val="11"/>
         <color rgb="FF0070C0"/>
         <rFont val="Arial"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>https://www.linkedin.com/in/robson-vaamonde-0b029028/</t>
     </r>
@@ -109,7 +43,7 @@
         <sz val="11"/>
         <color indexed="63"/>
         <rFont val="Arial"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">
 Instagram: </t>
@@ -120,7 +54,7 @@
         <sz val="11"/>
         <color rgb="FF0070C0"/>
         <rFont val="Arial"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>https://www.instagram.com/procedimentoem/</t>
     </r>
@@ -130,7 +64,7 @@
         <sz val="11"/>
         <color indexed="63"/>
         <rFont val="Arial"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">
 YouTUBE: </t>
@@ -141,13 +75,20 @@
         <sz val="11"/>
         <color rgb="FF0070C0"/>
         <rFont val="Arial"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>https://www.youtube.com/boraparapratica</t>
     </r>
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF333333"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
       <t>DICA:</t>
     </r>
     <r>
@@ -155,13 +96,20 @@
         <sz val="14"/>
         <color rgb="FF333333"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve"> operadores de comparação/relacionais são utilizados em Funções de Lógica (SE, E e OU).</t>
     </r>
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FF333333"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">CUIDADO!!!! </t>
     </r>
     <r>
@@ -169,12 +117,87 @@
         <sz val="16"/>
         <color rgb="FFFF0000"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>Alterar a ordem das Funções de Comparação altera o resultado final.</t>
     </r>
   </si>
   <si>
+    <t>Operador de Comparação/Relacionais</t>
+  </si>
+  <si>
+    <t>Primeiro</t>
+  </si>
+  <si>
+    <t>Segundo</t>
+  </si>
+  <si>
+    <t>Cálculo</t>
+  </si>
+  <si>
+    <t>Explicação</t>
+  </si>
+  <si>
+    <t>Maior</t>
+  </si>
+  <si>
+    <t>&gt;</t>
+  </si>
+  <si>
+    <t>=(D11&gt;E11)</t>
+  </si>
+  <si>
+    <t>Menor</t>
+  </si>
+  <si>
+    <t>&lt;</t>
+  </si>
+  <si>
+    <t>=(D12&lt;E12)</t>
+  </si>
+  <si>
+    <t>Igual</t>
+  </si>
+  <si>
+    <t>=</t>
+  </si>
+  <si>
+    <t>Vaamonde</t>
+  </si>
+  <si>
+    <t>=(D13=E13)</t>
+  </si>
+  <si>
+    <t>Maior Igual</t>
+  </si>
+  <si>
+    <t>&gt;=</t>
+  </si>
+  <si>
+    <t>=(D14&gt;=E14)</t>
+  </si>
+  <si>
+    <t>Menor Igual</t>
+  </si>
+  <si>
+    <t>&lt;=</t>
+  </si>
+  <si>
+    <t>=(D15&lt;=E15)</t>
+  </si>
+  <si>
+    <t>Diferente</t>
+  </si>
+  <si>
+    <t>&lt;&gt;</t>
+  </si>
+  <si>
+    <t>SENAC</t>
+  </si>
+  <si>
+    <t>=(D16&lt;&gt;E16)</t>
+  </si>
+  <si>
     <t>A ordem em que o Excel efetua operações em fórmulas</t>
   </si>
   <si>
@@ -197,16 +220,19 @@
   </si>
   <si>
     <t>https://support.microsoft.com/pt-br/office/usando-caracteres-curinga-em-pesquisas-ef94362e-9999-4350-ad74-4d2371110adb</t>
-  </si>
-  <si>
-    <t>SENAC</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="16">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-&quot;R$&quot;\ * #,##0_-;\-&quot;R$&quot;\ * #,##0_-;_-&quot;R$&quot;\ * &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="179" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+  </numFmts>
+  <fonts count="35">
     <font>
       <sz val="11"/>
       <color indexed="63"/>
@@ -214,27 +240,13 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="63"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
       <charset val="134"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
@@ -245,76 +257,234 @@
       <sz val="11"/>
       <color indexed="63"/>
       <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF0070C0"/>
-      <name val="Arial"/>
-      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="14"/>
       <color rgb="FF333333"/>
       <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color rgb="FF333333"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="14"/>
       <color indexed="63"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="16"/>
       <color rgb="FF333333"/>
       <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="16"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="16"/>
       <color indexed="63"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="63"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="16"/>
       <color indexed="63"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <u/>
       <sz val="10.5"/>
       <color rgb="FF0000FF"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="63"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF0070C0"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF333333"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -333,13 +503,214 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="13">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -367,9 +738,7 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
+      <left/>
       <right style="thin">
         <color auto="1"/>
       </right>
@@ -383,110 +752,379 @@
     </border>
     <border>
       <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
       <right style="thin">
-        <color auto="1"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color auto="1"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color auto="1"/>
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="21" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="8" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="41" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="41">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1" quotePrefix="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hiperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="60% - Ênfase 6" xfId="1" builtinId="52"/>
+    <cellStyle name="40% - Ênfase 6" xfId="2" builtinId="51"/>
+    <cellStyle name="20% - Ênfase 6" xfId="3" builtinId="50"/>
+    <cellStyle name="40% - Ênfase 5" xfId="4" builtinId="47"/>
+    <cellStyle name="Ênfase 5" xfId="5" builtinId="45"/>
+    <cellStyle name="Ênfase 4" xfId="6" builtinId="41"/>
+    <cellStyle name="Título 4" xfId="7" builtinId="19"/>
+    <cellStyle name="60% - Ênfase 3" xfId="8" builtinId="40"/>
+    <cellStyle name="20% - Ênfase 3" xfId="9" builtinId="38"/>
+    <cellStyle name="Ênfase 3" xfId="10" builtinId="37"/>
+    <cellStyle name="Título 3" xfId="11" builtinId="18"/>
+    <cellStyle name="60% - Ênfase 2" xfId="12" builtinId="36"/>
+    <cellStyle name="Célula de Verificação" xfId="13" builtinId="23"/>
+    <cellStyle name="40% - Ênfase 2" xfId="14" builtinId="35"/>
+    <cellStyle name="60% - Ênfase 5" xfId="15" builtinId="48"/>
+    <cellStyle name="Ênfase 2" xfId="16" builtinId="33"/>
+    <cellStyle name="Ênfase 6" xfId="17" builtinId="49"/>
+    <cellStyle name="40% - Ênfase 1" xfId="18" builtinId="31"/>
+    <cellStyle name="20% - Ênfase 1" xfId="19" builtinId="30"/>
+    <cellStyle name="60% - Ênfase 4" xfId="20" builtinId="44"/>
+    <cellStyle name="Ênfase 1" xfId="21" builtinId="29"/>
+    <cellStyle name="40% - Ênfase 4" xfId="22" builtinId="43"/>
+    <cellStyle name="Ruim" xfId="23" builtinId="27"/>
+    <cellStyle name="20% - Ênfase 4" xfId="24" builtinId="42"/>
+    <cellStyle name="Saída" xfId="25" builtinId="21"/>
+    <cellStyle name="Hyperlink seguido" xfId="26" builtinId="9"/>
+    <cellStyle name="Moeda [0]" xfId="27" builtinId="7"/>
+    <cellStyle name="Total" xfId="28" builtinId="25"/>
+    <cellStyle name="Bom" xfId="29" builtinId="26"/>
+    <cellStyle name="40% - Ênfase 3" xfId="30" builtinId="39"/>
+    <cellStyle name="Texto de Aviso" xfId="31" builtinId="11"/>
+    <cellStyle name="Cálculo" xfId="32" builtinId="22"/>
+    <cellStyle name="Entrada" xfId="33" builtinId="20"/>
+    <cellStyle name="Texto Explicativo" xfId="34" builtinId="53"/>
+    <cellStyle name="Título 1" xfId="35" builtinId="16"/>
+    <cellStyle name="Título" xfId="36" builtinId="15"/>
+    <cellStyle name="Observação" xfId="37" builtinId="10"/>
+    <cellStyle name="20% - Ênfase 2" xfId="38" builtinId="34"/>
+    <cellStyle name="60% - Ênfase 1" xfId="39" builtinId="32"/>
+    <cellStyle name="Título 2" xfId="40" builtinId="17"/>
+    <cellStyle name="Hyperlink" xfId="41" builtinId="8"/>
+    <cellStyle name="Célula Vinculada" xfId="42" builtinId="24"/>
+    <cellStyle name="Comma" xfId="43" builtinId="3"/>
+    <cellStyle name="Porcentagem" xfId="44" builtinId="5"/>
+    <cellStyle name="Neutro" xfId="45" builtinId="28"/>
+    <cellStyle name="20% - Ênfase 5" xfId="46" builtinId="46"/>
+    <cellStyle name="Moeda" xfId="47" builtinId="4"/>
+    <cellStyle name="Comma [0]" xfId="48" builtinId="6"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
@@ -502,19 +1140,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Imagem 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4F2888EF-4F4B-42F9-A848-6BCD4EE6F51E}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="4" name="Imagem 3"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+        <a:blip r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -527,8 +1159,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="629965" y="182251"/>
-          <a:ext cx="1113676" cy="904719"/>
+          <a:off x="721360" y="183515"/>
+          <a:ext cx="1113155" cy="913130"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -552,19 +1184,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="Imagem 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5130C3F1-1DC6-4330-AFC5-2D86B0C2A05B}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="5" name="Imagem 4"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+        <a:blip r:embed="rId2" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -577,8 +1203,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6241220" y="205592"/>
-          <a:ext cx="1910057" cy="867801"/>
+          <a:off x="6920865" y="203200"/>
+          <a:ext cx="2130425" cy="859155"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -598,23 +1224,17 @@
       <xdr:col>14</xdr:col>
       <xdr:colOff>309588</xdr:colOff>
       <xdr:row>23</xdr:row>
-      <xdr:rowOff>44290</xdr:rowOff>
+      <xdr:rowOff>168115</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="Imagem 5">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{940B3A2A-8FB2-4BF9-BCBD-16CC1D7EAB2E}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="6" name="Imagem 5"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+        <a:blip r:embed="rId3">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -627,8 +1247,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7689272" y="0"/>
-          <a:ext cx="4465952" cy="4582672"/>
+          <a:off x="8760460" y="0"/>
+          <a:ext cx="5099050" cy="4634865"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -963,284 +1583,297 @@
       <a:lstStyle/>
     </a:spDef>
   </a:objectDefaults>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O29"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:G30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" zeroHeight="1"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" zeroHeight="1" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="9.140625" customWidth="1"/>
+    <col min="1" max="1" width="9.14166666666667" customWidth="1"/>
     <col min="2" max="2" width="21" customWidth="1"/>
-    <col min="3" max="3" width="13.7109375" customWidth="1"/>
-    <col min="4" max="4" width="15.42578125" customWidth="1"/>
-    <col min="5" max="5" width="16.5703125" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" customWidth="1"/>
-    <col min="7" max="7" width="23.5703125" style="1" customWidth="1"/>
-    <col min="8" max="15" width="9.140625" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" hidden="1"/>
+    <col min="3" max="3" width="13.7083333333333" customWidth="1"/>
+    <col min="4" max="4" width="15.425" customWidth="1"/>
+    <col min="5" max="5" width="16.5666666666667" customWidth="1"/>
+    <col min="6" max="6" width="14.425" customWidth="1"/>
+    <col min="7" max="7" width="23.5666666666667" style="3" customWidth="1"/>
+    <col min="8" max="15" width="9.14166666666667" customWidth="1"/>
+    <col min="16" max="16384" width="9.14166666666667" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="10" customFormat="1" ht="14.25">
-      <c r="A1" s="9"/>
-    </row>
-    <row r="2" spans="1:7" s="10" customFormat="1" ht="14.25" customHeight="1">
-      <c r="B2" s="23" t="s">
-        <v>18</v>
-      </c>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="23"/>
-      <c r="G2" s="23"/>
-    </row>
-    <row r="3" spans="1:7" s="10" customFormat="1" ht="14.25" customHeight="1">
-      <c r="B3" s="23"/>
-      <c r="C3" s="23"/>
-      <c r="D3" s="23"/>
-      <c r="E3" s="23"/>
-      <c r="F3" s="23"/>
-      <c r="G3" s="23"/>
-    </row>
-    <row r="4" spans="1:7" s="10" customFormat="1" ht="14.25" customHeight="1">
-      <c r="B4" s="23"/>
-      <c r="C4" s="23"/>
-      <c r="D4" s="23"/>
-      <c r="E4" s="23"/>
-      <c r="F4" s="23"/>
-      <c r="G4" s="23"/>
-    </row>
-    <row r="5" spans="1:7" s="10" customFormat="1" ht="14.25" customHeight="1">
-      <c r="B5" s="23"/>
-      <c r="C5" s="23"/>
-      <c r="D5" s="23"/>
-      <c r="E5" s="23"/>
-      <c r="F5" s="23"/>
-      <c r="G5" s="23"/>
-    </row>
-    <row r="6" spans="1:7" s="10" customFormat="1" ht="14.25" customHeight="1">
-      <c r="B6" s="23"/>
-      <c r="C6" s="23"/>
-      <c r="D6" s="23"/>
-      <c r="E6" s="23"/>
-      <c r="F6" s="23"/>
-      <c r="G6" s="23"/>
-    </row>
-    <row r="7" spans="1:7" s="10" customFormat="1" ht="14.25"/>
-    <row r="8" spans="1:7" ht="18.75">
-      <c r="B8" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="C8" s="18"/>
-      <c r="D8" s="18"/>
-      <c r="E8" s="18"/>
-      <c r="F8" s="18"/>
+    <row r="1" s="1" customFormat="1" ht="14.25" spans="1:1">
+      <c r="A1" s="4"/>
+    </row>
+    <row r="2" s="1" customFormat="1" ht="14.25" customHeight="1" spans="2:7">
+      <c r="B2" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+    </row>
+    <row r="3" s="1" customFormat="1" ht="14.25" customHeight="1" spans="2:7">
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+    </row>
+    <row r="4" s="1" customFormat="1" ht="14.25" customHeight="1" spans="2:7">
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+    </row>
+    <row r="5" s="1" customFormat="1" ht="14.25" customHeight="1" spans="2:7">
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+    </row>
+    <row r="6" s="1" customFormat="1" ht="14.25" customHeight="1" spans="2:7">
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+    </row>
+    <row r="7" s="1" customFormat="1" ht="14.25"/>
+    <row r="8" ht="18" spans="2:7">
+      <c r="B8" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
       <c r="G8" s="19"/>
     </row>
-    <row r="9" spans="1:7" ht="21">
-      <c r="B9" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="C9" s="21"/>
-      <c r="D9" s="21"/>
-      <c r="E9" s="21"/>
-      <c r="F9" s="21"/>
-      <c r="G9" s="21"/>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="B10" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="C10" s="22"/>
-      <c r="D10" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E10" s="2" t="s">
+    <row r="9" ht="19.5" spans="2:7">
+      <c r="B9" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="F10" s="2" t="s">
+      <c r="C9" s="9"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
+    </row>
+    <row r="10" ht="14.25" spans="2:7">
+      <c r="B10" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="G10" s="2" t="s">
+      <c r="C10" s="10"/>
+      <c r="D10" s="10" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="B11" s="3" t="s">
+      <c r="E10" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="F10" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="D11" s="5">
+      <c r="G10" s="10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7">
+      <c r="B11" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" s="13">
         <v>10</v>
       </c>
-      <c r="E11" s="5">
+      <c r="E11" s="13">
         <v>10</v>
       </c>
-      <c r="F11" s="6" t="b">
+      <c r="F11" s="20" t="b">
         <f>(D11&gt;E11)</f>
         <v>0</v>
       </c>
-      <c r="G11" s="7"/>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="B12" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D12" s="5">
+      <c r="G11" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="E12" s="5">
+    </row>
+    <row r="12" spans="2:7">
+      <c r="B12" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="D12" s="13">
         <v>10</v>
       </c>
-      <c r="F12" s="6" t="b">
+      <c r="E12" s="13">
+        <v>10</v>
+      </c>
+      <c r="F12" s="20" t="b">
         <f>(D12&lt;E12)</f>
         <v>0</v>
       </c>
-      <c r="G12" s="7"/>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="B13" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C13" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="E13" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="F13" s="6" t="b">
+      <c r="G12" s="23" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7">
+      <c r="B13" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="D13" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="E13" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="F13" s="20" t="b">
         <f>(D13=E13)</f>
         <v>1</v>
       </c>
-      <c r="G13" s="7"/>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="B14" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D14" s="5">
+      <c r="G13" s="23" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7">
+      <c r="B14" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="D14" s="13">
         <v>10</v>
       </c>
-      <c r="E14" s="5">
+      <c r="E14" s="13">
         <v>10</v>
       </c>
-      <c r="F14" s="6" t="b">
+      <c r="F14" s="20" t="b">
         <f>(D14&gt;=E14)</f>
         <v>1</v>
       </c>
-      <c r="G14" s="7"/>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="B15" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D15" s="5">
+      <c r="G14" s="23" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="2:7">
+      <c r="B15" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="C15" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="D15" s="13">
         <v>10</v>
       </c>
-      <c r="E15" s="5">
+      <c r="E15" s="13">
         <v>10</v>
       </c>
-      <c r="F15" s="6" t="b">
+      <c r="F15" s="20" t="b">
         <f>(D15&lt;=E15)</f>
         <v>1</v>
       </c>
-      <c r="G15" s="7"/>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="B16" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D16" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="E16" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="F16" s="6" t="b">
+      <c r="G15" s="23" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="16" spans="2:7">
+      <c r="B16" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="E16" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="F16" s="20" t="b">
         <f>(D16&lt;&gt;E16)</f>
         <v>0</v>
       </c>
-      <c r="G16" s="7"/>
-    </row>
-    <row r="17" spans="2:7"/>
-    <row r="18" spans="2:7" s="11" customFormat="1" ht="21">
-      <c r="B18" s="12" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="19" spans="2:7" s="11" customFormat="1">
-      <c r="B19" s="13" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="20" spans="2:7" s="11" customFormat="1"/>
-    <row r="21" spans="2:7" ht="21">
-      <c r="B21" s="14" t="s">
-        <v>23</v>
+      <c r="G16" s="23" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="17" ht="14.25"/>
+    <row r="18" s="2" customFormat="1" ht="19.5" spans="2:2">
+      <c r="B18" s="14" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="19" s="2" customFormat="1" ht="14.25" spans="2:2">
+      <c r="B19" s="15" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="20" s="2" customFormat="1" ht="14.25"/>
+    <row r="21" ht="19.5" spans="2:7">
+      <c r="B21" s="16" t="s">
+        <v>30</v>
       </c>
       <c r="G21"/>
     </row>
-    <row r="22" spans="2:7">
-      <c r="B22" s="15" t="s">
-        <v>24</v>
+    <row r="22" ht="14.25" spans="2:7">
+      <c r="B22" s="17" t="s">
+        <v>31</v>
       </c>
       <c r="G22"/>
     </row>
-    <row r="23" spans="2:7">
+    <row r="23" ht="14.25" spans="7:7">
       <c r="G23"/>
     </row>
-    <row r="24" spans="2:7" ht="21">
-      <c r="B24" s="14" t="s">
-        <v>25</v>
+    <row r="24" ht="19.5" spans="2:7">
+      <c r="B24" s="16" t="s">
+        <v>32</v>
       </c>
       <c r="G24"/>
     </row>
-    <row r="25" spans="2:7">
-      <c r="B25" s="16" t="s">
-        <v>26</v>
+    <row r="25" ht="14.25" spans="2:7">
+      <c r="B25" s="18" t="s">
+        <v>33</v>
       </c>
       <c r="G25"/>
     </row>
-    <row r="26" spans="2:7">
+    <row r="26" ht="14.25" spans="7:7">
       <c r="G26"/>
     </row>
-    <row r="27" spans="2:7" ht="21">
-      <c r="B27" s="14" t="s">
-        <v>27</v>
+    <row r="27" ht="19.5" spans="2:7">
+      <c r="B27" s="16" t="s">
+        <v>34</v>
       </c>
       <c r="G27"/>
     </row>
-    <row r="28" spans="2:7">
-      <c r="B28" s="16" t="s">
-        <v>28</v>
+    <row r="28" ht="14.25" spans="2:7">
+      <c r="B28" s="18" t="s">
+        <v>35</v>
       </c>
       <c r="G28"/>
     </row>
-    <row r="29" spans="2:7" s="11" customFormat="1"/>
+    <row r="29" s="2" customFormat="1" ht="14.25"/>
+    <row r="30" ht="14.25" hidden="1"/>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="B8:G8"/>
@@ -1249,13 +1882,14 @@
     <mergeCell ref="B2:G6"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="B22" r:id="rId1" xr:uid="{FD9E26E3-5FDB-481D-ADFC-471C0CD65E16}"/>
-    <hyperlink ref="B28" r:id="rId2" xr:uid="{81800834-45CD-4CF9-A280-DEDA87F151A0}"/>
-    <hyperlink ref="B19" r:id="rId3" xr:uid="{C6E17803-6BC9-4FD8-9E50-46A78AB812C4}"/>
-    <hyperlink ref="B25" r:id="rId4" xr:uid="{FF1031BF-48E4-4D3E-B66D-346EDBCDAE4B}"/>
+    <hyperlink ref="B22" r:id="rId2" display="https://support.microsoft.com/pt-br/office/operadores-de-c%C3%A1lculo-e-preced%C3%AAncia-no-excel-48be406d-4975-4d31-b2b8-7af9e0e2878a"/>
+    <hyperlink ref="B28" r:id="rId3" display="https://support.microsoft.com/pt-br/office/usando-caracteres-curinga-em-pesquisas-ef94362e-9999-4350-ad74-4d2371110adb"/>
+    <hyperlink ref="B19" r:id="rId4" display="https://support.microsoft.com/pt-br/office/a-ordem-em-que-o-excel-efetua-opera%C3%A7%C3%B5es-em-f%C3%B3rmulas-28eaf0d7-7058-4eff-a8ea-0a835fafadb8"/>
+    <hyperlink ref="B25" r:id="rId5" display="https://support.microsoft.com/pt-br/office/operadores-de-c%C3%A1lculo-e-preced%C3%AAncia-36de9366-46fe-43a3-bfa8-cf6d8068eacc"/>
   </hyperlinks>
-  <pageMargins left="0.51180555555555596" right="0.51180555555555596" top="0.78680555555555598" bottom="0.78680555555555598" header="0.31388888888888899" footer="0.31388888888888899"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
-  <drawing r:id="rId6"/>
+  <pageMargins left="0.511805555555556" right="0.511805555555556" top="0.786805555555556" bottom="0.786805555555556" header="0.313888888888889" footer="0.313888888888889"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>